--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Plau-Lrp1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Plau-Lrp1.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>43.21270066666667</v>
+        <v>4.616372666666667</v>
       </c>
       <c r="H2">
-        <v>129.638102</v>
+        <v>13.849118</v>
       </c>
       <c r="I2">
-        <v>0.1487696778665633</v>
+        <v>0.0183283362562958</v>
       </c>
       <c r="J2">
-        <v>0.1487696778665633</v>
+        <v>0.01832833625629581</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>21.08181366666667</v>
+        <v>3.456265333333333</v>
       </c>
       <c r="N2">
-        <v>63.245441</v>
+        <v>10.368796</v>
       </c>
       <c r="O2">
-        <v>0.0571606014598545</v>
+        <v>0.009841535807677501</v>
       </c>
       <c r="P2">
-        <v>0.0571606014598545</v>
+        <v>0.0098415358076775</v>
       </c>
       <c r="Q2">
-        <v>911.0021034881091</v>
+        <v>15.95540881354755</v>
       </c>
       <c r="R2">
-        <v>8199.018931392982</v>
+        <v>143.598679321928</v>
       </c>
       <c r="S2">
-        <v>0.008503764265841563</v>
+        <v>0.000180378977561489</v>
       </c>
       <c r="T2">
-        <v>0.008503764265841561</v>
+        <v>0.000180378977561489</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>43.21270066666667</v>
+        <v>4.616372666666667</v>
       </c>
       <c r="H3">
-        <v>129.638102</v>
+        <v>13.849118</v>
       </c>
       <c r="I3">
-        <v>0.1487696778665633</v>
+        <v>0.0183283362562958</v>
       </c>
       <c r="J3">
-        <v>0.1487696778665633</v>
+        <v>0.01832833625629581</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>904.800446</v>
       </c>
       <c r="O3">
-        <v>0.8177496571571792</v>
+        <v>0.8587907398420774</v>
       </c>
       <c r="P3">
-        <v>0.8177496571571792</v>
+        <v>0.8587907398420773</v>
       </c>
       <c r="Q3">
-        <v>13032.95694535483</v>
+        <v>1392.298682567403</v>
       </c>
       <c r="R3">
-        <v>117296.6125081935</v>
+        <v>12530.68814310663</v>
       </c>
       <c r="S3">
-        <v>0.1216563530707661</v>
+        <v>0.01574020545361865</v>
       </c>
       <c r="T3">
-        <v>0.1216563530707661</v>
+        <v>0.01574020545361865</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>43.21270066666667</v>
+        <v>4.616372666666667</v>
       </c>
       <c r="H4">
-        <v>129.638102</v>
+        <v>13.849118</v>
       </c>
       <c r="I4">
-        <v>0.1487696778665633</v>
+        <v>0.0183283362562958</v>
       </c>
       <c r="J4">
-        <v>0.1487696778665633</v>
+        <v>0.01832833625629581</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>138.405749</v>
       </c>
       <c r="O4">
-        <v>0.1250897413829664</v>
+        <v>0.1313677243502452</v>
       </c>
       <c r="P4">
-        <v>0.1250897413829664</v>
+        <v>0.1313677243502452</v>
       </c>
       <c r="Q4">
-        <v>1993.6287340276</v>
+        <v>212.9775055310425</v>
       </c>
       <c r="R4">
-        <v>17942.6586062484</v>
+        <v>1916.797549779382</v>
       </c>
       <c r="S4">
-        <v>0.01860956052995562</v>
+        <v>0.002407751825115672</v>
       </c>
       <c r="T4">
-        <v>0.01860956052995561</v>
+        <v>0.002407751825115672</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>713.134216</v>
       </c>
       <c r="I5">
-        <v>0.8183762794517323</v>
+        <v>0.943783113604627</v>
       </c>
       <c r="J5">
-        <v>0.8183762794517323</v>
+        <v>0.9437831136046271</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>21.08181366666667</v>
+        <v>3.456265333333333</v>
       </c>
       <c r="N5">
-        <v>63.245441</v>
+        <v>10.368796</v>
       </c>
       <c r="O5">
-        <v>0.0571606014598545</v>
+        <v>0.009841535807677501</v>
       </c>
       <c r="P5">
-        <v>0.0571606014598545</v>
+        <v>0.0098415358076775</v>
       </c>
       <c r="Q5">
-        <v>5011.387553678806</v>
+        <v>821.5936895915485</v>
       </c>
       <c r="R5">
-        <v>45102.48798310925</v>
+        <v>7394.343206323936</v>
       </c>
       <c r="S5">
-        <v>0.04677888035393898</v>
+        <v>0.009288275307221299</v>
       </c>
       <c r="T5">
-        <v>0.04677888035393898</v>
+        <v>0.009288275307221299</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>713.134216</v>
       </c>
       <c r="I6">
-        <v>0.8183762794517323</v>
+        <v>0.943783113604627</v>
       </c>
       <c r="J6">
-        <v>0.8183762794517323</v>
+        <v>0.9437831136046271</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>904.800446</v>
       </c>
       <c r="O6">
-        <v>0.8177496571571792</v>
+        <v>0.8587907398420774</v>
       </c>
       <c r="P6">
-        <v>0.8177496571571792</v>
+        <v>0.8587907398420773</v>
       </c>
       <c r="Q6">
         <v>71693.7951882956</v>
@@ -818,10 +818,10 @@
         <v>645244.1566946603</v>
       </c>
       <c r="S6">
-        <v>0.669226921947222</v>
+        <v>0.8105121983829771</v>
       </c>
       <c r="T6">
-        <v>0.669226921947222</v>
+        <v>0.8105121983829769</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>713.134216</v>
       </c>
       <c r="I7">
-        <v>0.8183762794517323</v>
+        <v>0.943783113604627</v>
       </c>
       <c r="J7">
-        <v>0.8183762794517323</v>
+        <v>0.9437831136046271</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>138.405749</v>
       </c>
       <c r="O7">
-        <v>0.1250897413829664</v>
+        <v>0.1313677243502452</v>
       </c>
       <c r="P7">
-        <v>0.1250897413829664</v>
+        <v>0.1313677243502452</v>
       </c>
       <c r="Q7">
         <v>10966.87503366753</v>
@@ -880,10 +880,10 @@
         <v>98701.87530300779</v>
       </c>
       <c r="S7">
-        <v>0.1023704771505714</v>
+        <v>0.1239826399144288</v>
       </c>
       <c r="T7">
-        <v>0.1023704771505714</v>
+        <v>0.1239826399144288</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,10 +912,10 @@
         <v>28.629058</v>
       </c>
       <c r="I8">
-        <v>0.03285404268170446</v>
+        <v>0.03788855013907712</v>
       </c>
       <c r="J8">
-        <v>0.03285404268170446</v>
+        <v>0.03788855013907712</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>21.08181366666667</v>
+        <v>3.456265333333333</v>
       </c>
       <c r="N8">
-        <v>63.245441</v>
+        <v>10.368796</v>
       </c>
       <c r="O8">
-        <v>0.0571606014598545</v>
+        <v>0.009841535807677501</v>
       </c>
       <c r="P8">
-        <v>0.0571606014598545</v>
+        <v>0.0098415358076775</v>
       </c>
       <c r="Q8">
-        <v>201.1841554027309</v>
+        <v>32.98320689712978</v>
       </c>
       <c r="R8">
-        <v>1810.657398624578</v>
+        <v>296.848862074168</v>
       </c>
       <c r="S8">
-        <v>0.001877956840073958</v>
+        <v>0.0003728815228947118</v>
       </c>
       <c r="T8">
-        <v>0.001877956840073958</v>
+        <v>0.0003728815228947118</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>28.629058</v>
       </c>
       <c r="I9">
-        <v>0.03285404268170446</v>
+        <v>0.03788855013907712</v>
       </c>
       <c r="J9">
-        <v>0.03285404268170446</v>
+        <v>0.03788855013907712</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,10 +992,10 @@
         <v>904.800446</v>
       </c>
       <c r="O9">
-        <v>0.8177496571571792</v>
+        <v>0.8587907398420774</v>
       </c>
       <c r="P9">
-        <v>0.8177496571571792</v>
+        <v>0.8587907398420773</v>
       </c>
       <c r="Q9">
         <v>2878.176049662207</v>
@@ -1004,10 +1004,10 @@
         <v>25903.58444695987</v>
       </c>
       <c r="S9">
-        <v>0.02686638213919116</v>
+        <v>0.03253833600548169</v>
       </c>
       <c r="T9">
-        <v>0.02686638213919116</v>
+        <v>0.03253833600548169</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>28.629058</v>
       </c>
       <c r="I10">
-        <v>0.03285404268170446</v>
+        <v>0.03788855013907712</v>
       </c>
       <c r="J10">
-        <v>0.03285404268170446</v>
+        <v>0.03788855013907712</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,10 +1054,10 @@
         <v>138.405749</v>
       </c>
       <c r="O10">
-        <v>0.1250897413829664</v>
+        <v>0.1313677243502452</v>
       </c>
       <c r="P10">
-        <v>0.1250897413829664</v>
+        <v>0.1313677243502452</v>
       </c>
       <c r="Q10">
         <v>440.2695795171603</v>
@@ -1066,10 +1066,10 @@
         <v>3962.426215654442</v>
       </c>
       <c r="S10">
-        <v>0.00410970370243935</v>
+        <v>0.004977332610700727</v>
       </c>
       <c r="T10">
-        <v>0.00410970370243935</v>
+        <v>0.004977332610700726</v>
       </c>
     </row>
   </sheetData>
